--- a/report.xlsx
+++ b/report.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Average" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62637,4 +62638,9122 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E433"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>County</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Municipality</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Federal Average</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>State Average</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Local Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALEPPO TWP</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17305.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10903</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASPINWALL BORO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108179.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AVALON BORO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>247</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BALDWIN BORO</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34373.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BALDWIN TWP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BELL ACRES BORO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BELLEVUE BORO</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BEN AVON BORO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BEN AVON HEIGHTS BORO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BETHEL PARK BORO</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46575.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BLAWNOX BORO</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BRACKENRIDGE BORO</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BRADDOCK BORO</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BRADDOCK HILLS BORO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15408.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BRADFORD WOODS BORO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BRENTWOOD BORO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15011.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BRIDGEVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11907.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CARNEGIE BORO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45820</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4406.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CASTLE SHANNON BORO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15512.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CHALFANT BORO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CHESWICK BORO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7934</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CHURCHILL BORO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CLAIRTON CITY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>COLLIER TWP</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CORAOPOLIS BORO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CRAFTON BORO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6059.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CRESCENT TWP</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DORMONT BORO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10490.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29023.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DRAVOSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>814.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DUQUESNE CITY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15018.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EAST DEER TWP</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8220.200000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27813</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EAST MCKEESPORT BORO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>135632.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EAST PITTSBURGH BORO</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EDGEWOOD BORO</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18700.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EDGEWORTH BORO</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>654</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ELIZABETH BORO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4415</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ELIZABETH TWP</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>93792.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2140.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EMSWORTH BORO</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>194332.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ETNA BORO</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7540.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FAWN TWP</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FINDLAY TWP</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3875.4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FOREST HILLS BORO</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>75873</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FORWARD TWP</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>147469.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FOX CHAPEL BORO</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>68445.60000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FRANKLIN PARK BORO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20888.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FRAZER TWP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19274</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GLASSPORT BORO</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4953.8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GLEN OSBORNE BORO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GLENFIELD BORO</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GREEN TREE BORO</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10833.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HAMPTON TWP</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>449066.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>118611.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HARMAR TWP</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>30721.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>18055.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HARRISON TWP</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19654.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HAYSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HEIDELBERG BORO</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10233</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HOMESTEAD BORO</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>96500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2169.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14122</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>INDIANA TWP</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9509.799999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>INGRAM BORO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>JEFFERSON HILLS BORO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5720.4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KENNEDY TWP</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KILBUCK TWP</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9594.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LEET TWP</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LEETSDALE BORO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>206</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LIBERTY BORO</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3405.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LINCOLN BORO</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2063.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MARSHALL TWP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>107318.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MCCANDLESS TWP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>188904.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MCDONALD BORO</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MCKEES ROCKS BORO</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3638.8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MCKEESPORT CITY</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>712322.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>158184</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4916.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MILLVALE BORO</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>12617.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>31105</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MONROEVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>77798</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MOON TWP</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10818.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MOUNT OLIVER BORO</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11787.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MT LEBANON TWP</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>17897.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>59625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MUNHALL BORO</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5298.4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NEVILLE TWP</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NORTH BRADDOCK BORO</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2489.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NORTH FAYETTE TWP</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>89849</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NORTH VERSAILLES TWP</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>47310.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OAKDALE BORO</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>OAKMONT BORO</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>29296.4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>OHARA TWP</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OHIO TWP</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>32228.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PENN HILLS TWP</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>760898.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>91880</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PENNSBURY VILLAGE BORO</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PINE TWP</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>56603.4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PITCAIRN BORO</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PITTSBURGH CITY</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>24230739</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20911677.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1113588</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PLEASANT HILLS BORO</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12070.4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PLUM BORO</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>163613.4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PORT VUE BORO</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>14296.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>RANKIN BORO</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RESERVE TWP</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>35063.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>RICHLAND TWP</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>30007</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ROBINSON TWP</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>88884.60000000001</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ROSS TWP</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ROSSLYN FARMS BORO</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SCOTT TWP</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3045.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>14716.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SEWICKLEY BORO</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SEWICKLEY HEIGHTS BORO</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>212</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SEWICKLEY HILLS BORO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SHALER TWP</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>53101.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SHARPSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SOUTH FAYETTE TWP</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>142144.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>33063.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SOUTH PARK TWP</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12904</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SOUTH VERSAILLES TWP</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SPRINGDALE BORO</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SPRINGDALE TWP</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>75038.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>STOWE TWP</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SWISSVALE BORO</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>279229.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>98130.60000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TARENTUM BORO</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D113" t="n">
+        <v>38419.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>THORNBURG BORO</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8158.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TRAFFORD BORO</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TURTLE CREEK BORO</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>UPPER ST CLAIR TWP</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>106569.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VERONA BORO</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>VERSAILLES BORO</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>WALL BORO</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>WEST DEER TWP</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>WEST ELIZABETH BORO</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>WEST HOMESTEAD BORO</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6096.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>WEST MIFFLIN BORO</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>30310</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>WEST VIEW BORO</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5043.6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>WHITAKER BORO</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>WHITE OAK BORO</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4288.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>WHITEHALL BORO</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7392.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>WILKINS TWP</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>37862.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>WILKINSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>63690.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ALLEGHENY</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>WILMERDING BORO</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11857.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>APOLLO BORO</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>859.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>772.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>APPLEWOLD BORO</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ATWOOD BORO</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7570.6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>BETHEL TWP</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BOGGS TWP</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>BRADYS BEND TWP</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2277</v>
+      </c>
+      <c r="D137" t="n">
+        <v>44940.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BURRELL TWP</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CADOGAN TWP</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12050.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COWANSHANNOCK TWP</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>339623.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39215.2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DAYTON BORO</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EAST FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ELDERTON BORO</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6470.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>FORD CITY BORO</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>93792.60000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>FORD CLIFF BORO</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>616.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FREEPORT BORO</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>55396.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>GILPIN TWP</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6139.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>HOVEY TWP</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>KISKIMINETAS TWP</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6553</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>KITTANNING BORO</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11687.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>KITTANNING TWP</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>17135.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>LEECHBURG BORO</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>55267</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MADISON TWP</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7159.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MANOR TWP</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>53535</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MANORVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>NORTH APOLLO BORO</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>14011</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4865.6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>NORTH BUFFALO TWP</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>15470</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>PARKER CITY</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>PARKS TWP</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25454.8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>PERRY TWP</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8480</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3085.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PINE TWP</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PLUMCREEK TWP</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>RAYBURN TWP</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>REDBANK TWP</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2254.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>24769.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>RURAL VALLEY BORO</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21427.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SOUTH BEND TWP</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2520.4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SOUTH BETHLEHEM BORO</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SOUTH BUFFALO TWP</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>35140</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SUGARCREEK TWP</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>24220</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>VALLEY TWP</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>40412.4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2640</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>WAYNE TWP</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>70689.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>WEST FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>62056.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>WEST KITTANNING BORO</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>WORTHINGTON BORO</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ALIQUIPPA CITY</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1892.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>AMBRIDGE BORO</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>13732.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2690.4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>BADEN BORO</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4684</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>BEAVER BORO</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BEAVER FALLS CITY</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>32791.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>BIG BEAVER BORO</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BRIDGEWATER BORO</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>545</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>BRIGHTON TWP</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8367.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>895.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CENTER TWP</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>31552.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CHIPPEWA TWP</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>35443.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CONWAY BORO</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>570.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DARLINGTON BORO</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1223.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DARLINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>51764.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DAUGHERTY TWP</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>EAST ROCHESTER BORO</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ECONOMY BORO</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>34232</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ELLWOOD CITY BORO</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FALLSTON BORO</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>20800</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FREEDOM BORO</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>926.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>GEORGETOWN BORO</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>GLASGOW BORO</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>100</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>GREENE TWP</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7150.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>HANOVER TWP</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1120.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>HARMONY TWP</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>17913.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>HOMEWOOD BORO</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>193</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1454.25</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>HOOKSTOWN BORO</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>HOPEWELL TWP</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>26930.6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>INDEPENDENCE TWP</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8626.799999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>INDUSTRY BORO</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>KOPPEL BORO</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MARION TWP</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MIDLAND BORO</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MONACA BORO</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>22252.6</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>NEW BRIGHTON BORO</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>95022.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NEW GALILEE BORO</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>NEW SEWICKLEY TWP</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14725.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NORTH SEWICKLEY TWP</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1865.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>OHIOVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>PATTERSON HEIGHTS BORO</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>PATTERSON TWP</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2718.8</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>POTTER TWP</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>PULASKI TWP</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>517.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>RACCOON TWP</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ROCHESTER BORO</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ROCHESTER TWP</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>772.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SHIPPINGPORT BORO</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SOUTH BEAVER TWP</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SOUTH HEIGHTS BORO</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>VANPORT TWP</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2208</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>WEST MAYFIELD BORO</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BEAVER</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>WHITE TWP</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ADAMS TWP</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ALLEGHENY TWP</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2446.6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BRADY TWP</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>35017.2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BRUIN BORO</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>BUFFALO TWP</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>128167.4</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BUTLER CITY</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>332295.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30661.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BUTLER TWP</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>CALLERY BORO</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>CENTER TWP</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3633.2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>CHERRY TWP</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CHERRY VALLEY BORO</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>CHICORA BORO</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>CLAY TWP</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>CLEARFIELD TWP</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>CLINTON TWP</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>17901.4</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>CONCORD TWP</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>CONNOQUENESSING BORO</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>CONNOQUENESSING TWP</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>7962.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>236.8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>CRANBERRY TWP</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DONEGAL TWP</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>184704.8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>EAST BUTLER BORO</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4860.6</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>EAU CLAIRE BORO</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>EVANS CITY BORO</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7750.2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>FAIRVIEW BORO</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>5600</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>FAIRVIEW TWP</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8960.200000000001</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>FORWARD TWP</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>HARMONY BORO</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>HARRISVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>128</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>JACKSON TWP</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>489556.4</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>JEFFERSON TWP</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>KARNS CITY BORO</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>LANCASTER TWP</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MARION TWP</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5282.8</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MARS BORO</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MERCER TWP</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>114202</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3466.2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2254.6</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>MIDDLESEX TWP</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MUDDY CREEK TWP</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>OAKLAND TWP</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2118.4</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>PARKER TWP</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>PENN TWP</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>70416.8</v>
+      </c>
+      <c r="D269" t="n">
+        <v>23122.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>PETROLIA BORO</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PROSPECT BORO</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SAXONBURG BORO</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>4239.8</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SEVEN FIELDS BORO</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>876.4</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>SLIPPERY ROCK BORO</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SLIPPERY ROCK TWP</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>107601</v>
+      </c>
+      <c r="D275" t="n">
+        <v>6438</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SUMMIT TWP</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>94</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1459.2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>VALENCIA BORO</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>VENANGO TWP</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>45880</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>WEST LIBERTY BORO</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>WEST SUNBURY BORO</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>WINFIELD TWP</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>WORTH TWP</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ZELIENOPLE BORO</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>BELLE VERNON BORO</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>8873.799999999999</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3053</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>BROWNSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>25</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1553</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>BROWNSVILLE TWP</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BULLSKIN TWP</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3209.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>CONNELLSVILLE CITY</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>527880</v>
+      </c>
+      <c r="D289" t="n">
+        <v>61104.2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>CONNELLSVILLE TWP</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>4256</v>
+      </c>
+      <c r="D290" t="n">
+        <v>8073.4</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>DAWSON BORO</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>3422.8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>DUNBAR BORO</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>456</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>DUNBAR TWP</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>460</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>EVERSON BORO</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>341.8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>FAIRCHANCE BORO</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>FAYETTE CITY BORO</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2391</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>GEORGES TWP</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>GERMAN TWP</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>45238</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5002.6</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>HENRY CLAY TWP</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>JEFFERSON TWP</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>55767</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>LOWER TYRONE TWP</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>20390.6</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>LUZERNE TWP</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>170</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MARKLEYSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MASONTOWN BORO</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MENALLEN TWP</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>34650.2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>13486.8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>NEWELL BORO</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>NICHOLSON TWP</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>NORTH UNION TWP</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>127522.2</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>OHIOPYLE BORO</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>10860</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>PERRY TWP</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>107840.6</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>PERRYOPOLIS BORO</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>POINT MARION BORO</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>REDSTONE TWP</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>256599.2</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SALTLICK TWP</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2721.8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>18383.4</v>
+      </c>
+      <c r="E315" t="n">
+        <v>575.2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SMITHFIELD BORO</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SOUTH CONNELLSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>13512.6</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SOUTH UNION TWP</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>56452.6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>88773.2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>SPRINGFIELD TWP</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>489</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SPRINGHILL TWP</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>STEWART TWP</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>UNIONTOWN CITY</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>88154.60000000001</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>UPPER TYRONE TWP</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1322</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>VANDERBILT BORO</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1317.6</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>FAYETTE</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>WHARTON TWP</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1249631.2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ALEPPO TWP</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>8803.4</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>CARMICHAELS  BORO</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>490.8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>CENTER TWP</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>10854.8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>CLARKSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>CUMBERLAND TWP</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>22701.8</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>DUNKARD TWP</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1034.6</v>
+      </c>
+      <c r="E332" t="n">
+        <v>8538.4</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>FRANKLIN TWP</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>119806.8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>FREEPORT TWP</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>GILMORE TWP</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2577.6</v>
+      </c>
+      <c r="E335" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>GRAY TWP</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>GREENE TWP</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>GREENSBORO BORO</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>13190</v>
+      </c>
+      <c r="D338" t="n">
+        <v>45182</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>JACKSON TWP</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2344.4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>JEFFERSON BORO</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>140</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>JEFFERSON TWP</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MONONGAHELA TWP</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>21495</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>MORGAN TWP</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>12761.6</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MORRIS TWP</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>21705.8</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>PERRY TWP</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>RICES LANDING BORO</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>RICHHILL TWP</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>SPRINGHILL TWP</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>WAYNE TWP</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>8981.200000000001</v>
+      </c>
+      <c r="E350" t="n">
+        <v>80267.39999999999</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>WAYNESBURG BORO</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>105185.2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>4678.2</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>GREENE</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>WHITELEY TWP</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>14422.8</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ARMAGH BORO</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>419.6</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ARMSTRONG TWP</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>BANKS TWP</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>BLACK LICK TWP</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BLAIRSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>85293.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>BRUSH VALLEY TWP</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>21332.6</v>
+      </c>
+      <c r="E358" t="n">
+        <v>19001.4</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>42593.4</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>BURRELL TWP</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>3608.8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>CENTER TWP</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>CHERRY TREE BORO</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>CHERRYHILL TWP</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>12404.6</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>CLYMER BORO</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>CONEMAUGH TWP</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>CREEKSIDE BORO</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>EAST MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>EAST WHEATFIELD TWP</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>6944</v>
+      </c>
+      <c r="E368" t="n">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>ERNEST BORO</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>5384.4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>6996.4</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>GLEN CAMPBELL BORO</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>GRANT TWP</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>150606.6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>54979.6</v>
+      </c>
+      <c r="E371" t="n">
+        <v>25973.6</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>GREEN TWP</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>33997.2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>HOMER CITY BORO</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>96252.60000000001</v>
+      </c>
+      <c r="D373" t="n">
+        <v>89764</v>
+      </c>
+      <c r="E373" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>INDIANA BORO</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>52712</v>
+      </c>
+      <c r="D374" t="n">
+        <v>597921</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MARION CENTER BORO</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>38252.8</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MONTGOMERY TWP</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>5375.8</v>
+      </c>
+      <c r="E376" t="n">
+        <v>233.8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>NORTH MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>PINE TWP</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>PLUMVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>8395.6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>RAYNE TWP</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>126538.6</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>SALTSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>873.4</v>
+      </c>
+      <c r="E381" t="n">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>SHELOCTA BORO</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SMICKSBURG BORO</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SOUTH MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>62028.2</v>
+      </c>
+      <c r="E385" t="n">
+        <v>11693.4</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>WEST MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>WEST WHEATFIELD TWP</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2137.8</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>WHITE TWP</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>INDIANA</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>YOUNG TWP</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>403</v>
+      </c>
+      <c r="E389" t="n">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>BESSEMER BORO</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2791.8</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>ELLPORT BORO</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>ELLWOOD CITY BORO</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>2643.8</v>
+      </c>
+      <c r="D392" t="n">
+        <v>55771.4</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ENON VALLEY BORO</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>HICKORY TWP</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>42513.8</v>
+      </c>
+      <c r="E394" t="n">
+        <v>55398</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>LITTLE BEAVER TWP</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>972.4</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>MAHONING TWP</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2944.8</v>
+      </c>
+      <c r="E396" t="n">
+        <v>57912</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>NESHANNOCK TWP</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>304669.6</v>
+      </c>
+      <c r="E397" t="n">
+        <v>22186.8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>NEW BEAVER BORO</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>3707.8</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>NEW CASTLE CITY</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>326789.4</v>
+      </c>
+      <c r="D399" t="n">
+        <v>212349</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>NEW WILMINGTON BORO</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>34818.4</v>
+      </c>
+      <c r="D400" t="n">
+        <v>3302.8</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1380.2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>NORTH BEAVER TWP</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>119953.4</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2129.4</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>PERRY TWP</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>35641.8</v>
+      </c>
+      <c r="D402" t="n">
+        <v>175147.8</v>
+      </c>
+      <c r="E402" t="n">
+        <v>10838.6</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>PLAIN GROVE TWP</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>6621.2</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>PULASKI TWP</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>13086.6</v>
+      </c>
+      <c r="E404" t="n">
+        <v>8743.799999999999</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>S.N.P.J. BORO</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>SCOTT TWP</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>SHENANGO TWP</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>3768.4</v>
+      </c>
+      <c r="D407" t="n">
+        <v>13520.8</v>
+      </c>
+      <c r="E407" t="n">
+        <v>16741.8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>SLIPPERY ROCK TWP</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>SOUTH NEW CASTLE BORO</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>TAYLOR TWP</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>UNION TWP</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>24565.2</v>
+      </c>
+      <c r="D411" t="n">
+        <v>43981.6</v>
+      </c>
+      <c r="E411" t="n">
+        <v>5808.4</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>VOLANT BORO</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>WAMPUM BORO</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>WASHINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>637.4</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>WAYNE TWP</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>WILMINGTON TWP</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>21520.6</v>
+      </c>
+      <c r="E416" t="n">
+        <v>6383.2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>ALLENPORT BORO</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>30430.4</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>AMWELL TWP</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>340587</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>BEALLSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>27660</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>BENTLEYVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>50810</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>BLAINE TWP</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>42107</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>BUFFALO TWP</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>71215.2</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>BURGETTSTOWN BORO</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>44923.2</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>CALIFORNIA BORO</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>75157</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>CANONSBURG  BORO</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>130858.4</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>CANTON TWP</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+      <c r="D426" t="n">
+        <v>120705</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>CARROLL TWP</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>2672</v>
+      </c>
+      <c r="D427" t="n">
+        <v>130974.4</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>CECIL TWP</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>137710</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>CENTERVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>90984</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>CHARLEROI BORO</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>3634.4</v>
+      </c>
+      <c r="D430" t="n">
+        <v>65768.2</v>
+      </c>
+      <c r="E430" t="n">
+        <v>7862.6</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>CHARTIERS TWP</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>965</v>
+      </c>
+      <c r="D431" t="n">
+        <v>103180</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>CLAYSVILLE BORO</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>33290</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>WASHINGTON</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>MT PLEASANT TWP</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>